--- a/1-Data/WG2_Feb_25_Alkalinity.xlsx
+++ b/1-Data/WG2_Feb_25_Alkalinity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\1-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/1-Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7501606-BFF3-4F9D-BA8C-D33C957983F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{E7501606-BFF3-4F9D-BA8C-D33C957983F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CF4E6B7-9653-480B-911D-38CF357910EE}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{612EE2E3-3904-4EA6-82FD-4096324F4E92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{612EE2E3-3904-4EA6-82FD-4096324F4E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>PI</t>
   </si>
@@ -143,10 +143,22 @@
     <t>LSC-MB</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Samples were stuck in post office and reached warm temperature. Do not know how long they sat for.</t>
+  </si>
+  <si>
+    <t>Detroit River</t>
+  </si>
+  <si>
+    <t>Lake Huron 9A</t>
+  </si>
+  <si>
+    <t>Lake Huron 10A</t>
+  </si>
+  <si>
+    <t>Lake Huron 1A</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -519,19 +531,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E13689-352A-44E4-A40D-0189372EF418}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -559,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -573,7 +585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -587,7 +599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -601,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -615,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -629,7 +641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -643,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -657,7 +669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -671,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -685,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -699,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -713,7 +725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -727,7 +739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -741,7 +753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -755,10 +767,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -772,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -786,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -800,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -814,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -828,13 +840,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>35</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45708</v>
       </c>
       <c r="D22">
-        <f>SUM(D2:D21)</f>
-        <v>36</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45706</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45708</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45706</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D2:D25)</f>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
